--- a/Working_Dataset_Medication.xlsx
+++ b/Working_Dataset_Medication.xlsx
@@ -558,7 +558,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -587,6 +587,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -667,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -749,6 +755,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -3784,8 +3793,8 @@
       <c r="U23" s="6">
         <v>-22.58</v>
       </c>
-      <c r="V23" s="6">
-        <v>1.47</v>
+      <c r="V23" s="21">
+        <v>14.77</v>
       </c>
       <c r="W23" s="6">
         <v>101.0</v>
@@ -3793,8 +3802,8 @@
       <c r="X23" s="6">
         <v>-23.38</v>
       </c>
-      <c r="Y23" s="6">
-        <v>1.6</v>
+      <c r="Y23" s="21">
+        <v>16.0</v>
       </c>
       <c r="Z23" s="9">
         <v>100.0</v>
@@ -5073,8 +5082,8 @@
       <c r="T33" s="14">
         <v>117.0</v>
       </c>
-      <c r="U33" s="11">
-        <v>22.6</v>
+      <c r="U33" s="29">
+        <v>-22.6</v>
       </c>
       <c r="V33" s="11" t="s">
         <v>51</v>
@@ -5098,7 +5107,7 @@
       <c r="AD33" s="19">
         <v>0.61</v>
       </c>
-      <c r="AF33" s="29"/>
+      <c r="AF33" s="30"/>
       <c r="AG33" s="20">
         <v>0.6</v>
       </c>
@@ -6150,7 +6159,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="31" t="s">
         <v>129</v>
       </c>
       <c r="B42" s="11">
@@ -7719,8 +7728,8 @@
       <c r="AC54" s="16"/>
       <c r="AD54" s="16"/>
       <c r="AE54" s="16"/>
-      <c r="AF54" s="29"/>
-      <c r="AG54" s="29"/>
+      <c r="AF54" s="30"/>
+      <c r="AG54" s="30"/>
       <c r="AH54" s="11" t="s">
         <v>53</v>
       </c>
@@ -8432,8 +8441,8 @@
       <c r="U60" s="6">
         <v>-16.5</v>
       </c>
-      <c r="V60" s="6">
-        <v>2.45</v>
+      <c r="V60" s="21">
+        <v>13.19</v>
       </c>
       <c r="W60" s="6">
         <v>29.0</v>
@@ -8441,8 +8450,8 @@
       <c r="X60" s="6">
         <v>-11.9</v>
       </c>
-      <c r="Y60" s="6">
-        <v>2.54</v>
+      <c r="Y60" s="21">
+        <v>13.2</v>
       </c>
       <c r="Z60" s="9">
         <v>27.0</v>
@@ -9038,8 +9047,8 @@
       <c r="N65" s="9">
         <v>187.0</v>
       </c>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
       <c r="Q65" s="24">
         <v>185.0</v>
       </c>
@@ -9295,10 +9304,10 @@
       <c r="N67" s="9">
         <v>85.0</v>
       </c>
-      <c r="O67" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="P67" s="33" t="s">
+      <c r="O67" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="P67" s="34" t="s">
         <v>51</v>
       </c>
       <c r="Q67" s="24">
@@ -9313,22 +9322,22 @@
       <c r="T67" s="9">
         <v>85.0</v>
       </c>
-      <c r="U67" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="V67" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="W67" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="X67" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y67" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z67" s="35" t="s">
+      <c r="U67" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="V67" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="W67" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="X67" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y67" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z67" s="36" t="s">
         <v>51</v>
       </c>
       <c r="AA67" s="6" t="s">
@@ -18303,7 +18312,7 @@
       <c r="Q1018" s="22"/>
       <c r="T1018" s="22"/>
       <c r="Z1018" s="22"/>
-      <c r="AF1018" s="29"/>
+      <c r="AF1018" s="30"/>
       <c r="AG1018" s="22"/>
     </row>
   </sheetData>

--- a/Working_Dataset_Medication.xlsx
+++ b/Working_Dataset_Medication.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\OneDrive - University College London\Response to Psychological and Pharmacological Treatment for Depression in Children and Adolescents\apples_oranges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_B5F8ED683CB8D5254EF30DB4C4F8C8A173EC9411" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{8FE35314-50E9-4E6E-B5F1-521AAC08C75E}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{DF5F7F5D-FABA-4118-B84C-C187340DF451}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CE4B18B6-704A-4F34-841B-72FB966BE767}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="7500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="169">
   <si>
     <t>study</t>
   </si>
@@ -292,9 +292,6 @@
     <t>8 to 17</t>
   </si>
   <si>
-    <t>Nefazadone</t>
-  </si>
-  <si>
     <t>12 to 17</t>
   </si>
   <si>
@@ -310,7 +307,7 @@
     <t>2007a</t>
   </si>
   <si>
-    <t>Venlafaxine ER</t>
+    <t>Venlafaxine</t>
   </si>
   <si>
     <t>35% improvement from baseline score</t>
@@ -433,7 +430,7 @@
     <t>Klein</t>
   </si>
   <si>
-    <t>Desipamine</t>
+    <t>Desipramine</t>
   </si>
   <si>
     <t>Anxiety disorders and behaviour disorders</t>
@@ -443,9 +440,6 @@
   </si>
   <si>
     <t>Kutcher</t>
-  </si>
-  <si>
-    <t>Desipramine</t>
   </si>
   <si>
     <t xml:space="preserve">post </t>
@@ -724,7 +718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -762,10 +756,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,13 +976,12 @@
   </sheetPr>
   <dimension ref="A1:AS1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6328125" style="40"/>
     <col min="45" max="45" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1000,7 +989,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1137,7 +1126,7 @@
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1267,7 +1256,7 @@
       <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -1396,7 +1385,7 @@
       <c r="A4" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="6">
         <v>2014</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1522,7 +1511,7 @@
       <c r="A5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="11">
         <v>2014</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -1648,7 +1637,7 @@
       <c r="A6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="6">
         <v>2006</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1778,7 +1767,7 @@
       <c r="A7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="6">
         <v>2006</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1894,7 +1883,7 @@
       <c r="A8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="6">
         <v>2006</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2025,7 +2014,7 @@
       <c r="A9" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="11">
         <v>2006</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2148,7 +2137,7 @@
       <c r="A10" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2266,7 +2255,7 @@
       <c r="A11" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -2382,7 +2371,7 @@
       <c r="A12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -2506,7 +2495,7 @@
       <c r="A13" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -2637,7 +2626,7 @@
       <c r="A14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="6">
         <v>1997</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2753,7 +2742,7 @@
       <c r="A15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="6">
         <v>1997</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2871,7 +2860,7 @@
       <c r="A16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="11">
         <v>1997</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -3002,7 +2991,7 @@
       <c r="A17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3133,7 +3122,7 @@
       <c r="A18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3254,7 +3243,7 @@
       <c r="A19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -3384,11 +3373,11 @@
       <c r="A20" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>48</v>
@@ -3482,7 +3471,7 @@
         <v>64</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN20" s="6" t="s">
         <v>51</v>
@@ -3505,11 +3494,11 @@
       <c r="A21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>48</v>
@@ -3579,7 +3568,7 @@
         <v>64</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN21" s="6" t="s">
         <v>51</v>
@@ -3602,11 +3591,11 @@
       <c r="A22" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>48</v>
@@ -3710,7 +3699,7 @@
         <v>64</v>
       </c>
       <c r="AM22" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN22" s="11" t="s">
         <v>51</v>
@@ -3733,7 +3722,7 @@
       <c r="A23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="6">
         <v>2006</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3820,10 +3809,10 @@
         <v>70</v>
       </c>
       <c r="AK23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL23" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="AL23" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="AM23" s="6" t="s">
         <v>56</v>
@@ -3844,14 +3833,14 @@
         <v>57</v>
       </c>
       <c r="AS23" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="11">
         <v>2006</v>
       </c>
       <c r="C24" s="11" t="s">
@@ -3953,10 +3942,10 @@
         <v>70</v>
       </c>
       <c r="AK24" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL24" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="AL24" s="11" t="s">
-        <v>93</v>
       </c>
       <c r="AM24" s="11" t="s">
         <v>56</v>
@@ -3982,11 +3971,11 @@
       <c r="A25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>48</v>
@@ -4058,7 +4047,7 @@
         <v>52</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB25" s="6">
         <v>43</v>
@@ -4093,33 +4082,33 @@
         <v>56</v>
       </c>
       <c r="AN25" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO25" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AO25" s="6" t="s">
+      <c r="AP25" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AP25" s="6" t="s">
+      <c r="AQ25" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AQ25" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="AR25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="AS25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="38" t="s">
-        <v>103</v>
+      <c r="B26" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>48</v>
@@ -4191,7 +4180,7 @@
         <v>52</v>
       </c>
       <c r="AA26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB26" s="6">
         <v>77</v>
@@ -4226,33 +4215,33 @@
         <v>56</v>
       </c>
       <c r="AN26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO26" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="AO26" s="6" t="s">
+      <c r="AP26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="AP26" s="6" t="s">
+      <c r="AQ26" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="AQ26" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="AR26" s="6" t="s">
         <v>57</v>
       </c>
       <c r="AS26" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>105</v>
+      <c r="B27" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>48</v>
@@ -4324,7 +4313,7 @@
         <v>52</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB27" s="6">
         <v>81</v>
@@ -4374,18 +4363,18 @@
         <v>57</v>
       </c>
       <c r="AS27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="39" t="s">
-        <v>105</v>
+      <c r="B28" s="11" t="s">
+        <v>104</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>48</v>
@@ -4457,7 +4446,7 @@
         <v>52</v>
       </c>
       <c r="AA28" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AB28" s="11">
         <v>85</v>
@@ -4512,11 +4501,11 @@
       <c r="A29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="6">
         <v>2009</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>48</v>
@@ -4588,7 +4577,7 @@
         <v>157</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AB29" s="6">
         <v>91</v>
@@ -4614,13 +4603,13 @@
         <v>70</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL29" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN29" s="6">
         <v>14.7</v>
@@ -4638,18 +4627,18 @@
         <v>57</v>
       </c>
       <c r="AS29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="11">
         <v>2009</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>48</v>
@@ -4747,13 +4736,13 @@
         <v>70</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AL30" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AM30" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN30" s="11">
         <v>14.7</v>
@@ -4774,9 +4763,9 @@
     </row>
     <row r="31" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="38">
+        <v>111</v>
+      </c>
+      <c r="B31" s="6">
         <v>2014</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -4852,7 +4841,7 @@
         <v>117</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD31" s="17">
         <v>0.69</v>
@@ -4874,7 +4863,7 @@
         <v>55</v>
       </c>
       <c r="AL31" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM31" s="6" t="s">
         <v>56</v>
@@ -4895,14 +4884,14 @@
         <v>57</v>
       </c>
       <c r="AS31" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B32" s="38">
+        <v>111</v>
+      </c>
+      <c r="B32" s="6">
         <v>2014</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -4978,7 +4967,7 @@
         <v>117</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD32" s="17">
         <v>0.69</v>
@@ -5000,7 +4989,7 @@
         <v>55</v>
       </c>
       <c r="AL32" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM32" s="6" t="s">
         <v>56</v>
@@ -5025,7 +5014,7 @@
       <c r="A33" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="11">
         <v>2014</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -5101,7 +5090,7 @@
         <v>117</v>
       </c>
       <c r="AA33" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC33" s="16"/>
       <c r="AD33" s="19">
@@ -5124,7 +5113,7 @@
         <v>55</v>
       </c>
       <c r="AL33" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AM33" s="11" t="s">
         <v>56</v>
@@ -5148,9 +5137,9 @@
     </row>
     <row r="34" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B34" s="38">
+        <v>115</v>
+      </c>
+      <c r="B34" s="6">
         <v>2009</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -5226,7 +5215,7 @@
         <v>16</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AB34" s="17"/>
       <c r="AD34" s="17">
@@ -5248,13 +5237,13 @@
         <v>70</v>
       </c>
       <c r="AK34" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL34" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM34" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN34" s="6">
         <v>16.55</v>
@@ -5274,9 +5263,9 @@
     </row>
     <row r="35" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="38">
+        <v>115</v>
+      </c>
+      <c r="B35" s="6">
         <v>2009</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -5295,7 +5284,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I35" s="6">
         <v>17.2</v>
@@ -5363,13 +5352,13 @@
         <v>70</v>
       </c>
       <c r="AK35" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL35" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM35" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN35" s="6">
         <v>16.55</v>
@@ -5389,9 +5378,9 @@
     </row>
     <row r="36" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B36" s="39">
+        <v>115</v>
+      </c>
+      <c r="B36" s="11">
         <v>2009</v>
       </c>
       <c r="C36" s="11" t="s">
@@ -5493,13 +5482,13 @@
         <v>70</v>
       </c>
       <c r="AK36" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL36" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AM36" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN36" s="11">
         <v>16.55</v>
@@ -5520,19 +5509,19 @@
     </row>
     <row r="37" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1990</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B37" s="38">
-        <v>1990</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>48</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
@@ -5614,13 +5603,13 @@
         <v>70</v>
       </c>
       <c r="AK37" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AL37" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM37" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN37" s="6">
         <v>14.3</v>
@@ -5640,13 +5629,13 @@
     </row>
     <row r="38" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1990</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="B38" s="39">
-        <v>1990</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>121</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>48</v>
@@ -5718,7 +5707,7 @@
         <v>52</v>
       </c>
       <c r="AA38" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AB38" s="11">
         <v>1</v>
@@ -5744,13 +5733,13 @@
         <v>70</v>
       </c>
       <c r="AK38" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AL38" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AM38" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN38" s="11">
         <v>14.3</v>
@@ -5771,13 +5760,13 @@
     </row>
     <row r="39" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="38">
+        <v>124</v>
+      </c>
+      <c r="B39" s="6">
         <v>1992</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>48</v>
@@ -5849,7 +5838,7 @@
         <v>52</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB39" s="6">
         <v>8</v>
@@ -5881,7 +5870,7 @@
         <v>64</v>
       </c>
       <c r="AM39" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN39" s="6">
         <v>9.6999999999999993</v>
@@ -5901,13 +5890,13 @@
     </row>
     <row r="40" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="39">
+        <v>124</v>
+      </c>
+      <c r="B40" s="11">
         <v>1992</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>48</v>
@@ -5979,7 +5968,7 @@
         <v>52</v>
       </c>
       <c r="AA40" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AB40" s="11">
         <v>12</v>
@@ -6011,7 +6000,7 @@
         <v>64</v>
       </c>
       <c r="AM40" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN40" s="11">
         <v>9.6999999999999993</v>
@@ -6032,13 +6021,13 @@
     </row>
     <row r="41" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1990</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="B41" s="38">
-        <v>1990</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>48</v>
@@ -6110,7 +6099,7 @@
         <v>52</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB41" s="6">
         <v>4</v>
@@ -6136,11 +6125,11 @@
         <v>70</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL41" s="6"/>
       <c r="AM41" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN41" s="6" t="s">
         <v>51</v>
@@ -6160,13 +6149,13 @@
     </row>
     <row r="42" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="11">
+        <v>1990</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="B42" s="39">
-        <v>1990</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>48</v>
@@ -6238,7 +6227,7 @@
         <v>52</v>
       </c>
       <c r="AA42" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AB42" s="11">
         <v>2</v>
@@ -6264,11 +6253,11 @@
         <v>70</v>
       </c>
       <c r="AK42" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL42" s="11"/>
       <c r="AM42" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN42" s="11" t="s">
         <v>51</v>
@@ -6289,9 +6278,9 @@
     </row>
     <row r="43" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B43" s="38">
+        <v>132</v>
+      </c>
+      <c r="B43" s="6">
         <v>2001</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -6393,13 +6382,13 @@
         <v>70</v>
       </c>
       <c r="AK43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL43" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM43" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="AL43" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM43" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="AN43" s="6">
         <v>14.8</v>
@@ -6419,9 +6408,9 @@
     </row>
     <row r="44" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="38">
+        <v>132</v>
+      </c>
+      <c r="B44" s="6">
         <v>2001</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -6508,13 +6497,13 @@
         <v>70</v>
       </c>
       <c r="AK44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL44" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM44" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="AL44" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM44" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="AN44" s="6">
         <v>14.8</v>
@@ -6534,9 +6523,9 @@
     </row>
     <row r="45" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="38">
+        <v>132</v>
+      </c>
+      <c r="B45" s="6">
         <v>2001</v>
       </c>
       <c r="C45" s="6" t="s">
@@ -6638,13 +6627,13 @@
         <v>70</v>
       </c>
       <c r="AK45" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL45" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM45" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="AL45" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM45" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="AN45" s="6">
         <v>14.8</v>
@@ -6664,13 +6653,13 @@
     </row>
     <row r="46" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B46" s="38">
+        <v>132</v>
+      </c>
+      <c r="B46" s="6">
         <v>2001</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>48</v>
@@ -6768,13 +6757,13 @@
         <v>70</v>
       </c>
       <c r="AK46" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL46" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM46" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="AL46" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM46" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="AN46" s="6">
         <v>14.9</v>
@@ -6794,13 +6783,13 @@
     </row>
     <row r="47" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="38">
+        <v>132</v>
+      </c>
+      <c r="B47" s="6">
         <v>2001</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>48</v>
@@ -6883,13 +6872,13 @@
         <v>70</v>
       </c>
       <c r="AK47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM47" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="AL47" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM47" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="AN47" s="6">
         <v>14.9</v>
@@ -6909,13 +6898,13 @@
     </row>
     <row r="48" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="39">
+        <v>132</v>
+      </c>
+      <c r="B48" s="11">
         <v>2001</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>48</v>
@@ -7013,13 +7002,13 @@
         <v>70</v>
       </c>
       <c r="AK48" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL48" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM48" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="AL48" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM48" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="AN48" s="11">
         <v>14.9</v>
@@ -7040,13 +7029,13 @@
     </row>
     <row r="49" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="6">
+        <v>1998</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B49" s="38">
-        <v>1998</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>48</v>
@@ -7129,13 +7118,13 @@
         <v>70</v>
       </c>
       <c r="AK49" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL49" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM49" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN49" s="6">
         <v>15.66</v>
@@ -7155,13 +7144,13 @@
     </row>
     <row r="50" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1998</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B50" s="38">
-        <v>1998</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>48</v>
@@ -7244,13 +7233,13 @@
         <v>70</v>
       </c>
       <c r="AK50" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL50" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM50" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN50" s="6">
         <v>15.66</v>
@@ -7270,13 +7259,13 @@
     </row>
     <row r="51" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="11">
+        <v>1998</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="B51" s="39">
-        <v>1998</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>48</v>
@@ -7374,13 +7363,13 @@
         <v>70</v>
       </c>
       <c r="AK51" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL51" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AM51" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN51" s="11">
         <v>15.66</v>
@@ -7401,13 +7390,13 @@
     </row>
     <row r="52" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B52" s="38">
+        <v>139</v>
+      </c>
+      <c r="B52" s="6">
         <v>1994</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>48</v>
@@ -7489,7 +7478,7 @@
         <v>0.35</v>
       </c>
       <c r="AH52" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AI52" s="6">
         <v>6</v>
@@ -7501,10 +7490,10 @@
         <v>55</v>
       </c>
       <c r="AL52" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AM52" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AN52" s="6">
         <v>17.8</v>
@@ -7524,13 +7513,13 @@
     </row>
     <row r="53" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="38">
+        <v>139</v>
+      </c>
+      <c r="B53" s="6">
         <v>1994</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>48</v>
@@ -7602,7 +7591,7 @@
         <v>51</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AD53" s="17">
         <v>0.28000000000000003</v>
@@ -7611,7 +7600,7 @@
       <c r="AF53" s="22"/>
       <c r="AG53" s="22"/>
       <c r="AH53" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AI53" s="6">
         <v>6</v>
@@ -7623,10 +7612,10 @@
         <v>55</v>
       </c>
       <c r="AL53" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AM53" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AN53" s="6">
         <v>17.8</v>
@@ -7646,13 +7635,13 @@
     </row>
     <row r="54" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="39">
+        <v>139</v>
+      </c>
+      <c r="B54" s="11">
         <v>1994</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>48</v>
@@ -7667,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>51</v>
@@ -7743,10 +7732,10 @@
         <v>55</v>
       </c>
       <c r="AL54" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AM54" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AN54" s="11">
         <v>17.8</v>
@@ -7767,13 +7756,13 @@
     </row>
     <row r="55" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="38">
+        <v>144</v>
+      </c>
+      <c r="B55" s="6">
         <v>1996</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>48</v>
@@ -7867,7 +7856,7 @@
         <v>64</v>
       </c>
       <c r="AM55" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN55" s="6">
         <v>14.6</v>
@@ -7887,13 +7876,13 @@
     </row>
     <row r="56" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B56" s="39">
+        <v>144</v>
+      </c>
+      <c r="B56" s="11">
         <v>1996</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>48</v>
@@ -7965,7 +7954,7 @@
         <v>51</v>
       </c>
       <c r="AA56" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AB56" s="11">
         <v>13</v>
@@ -7997,7 +7986,7 @@
         <v>64</v>
       </c>
       <c r="AM56" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN56" s="11">
         <v>14.6</v>
@@ -8018,9 +8007,9 @@
     </row>
     <row r="57" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B57" s="38">
+        <v>147</v>
+      </c>
+      <c r="B57" s="6">
         <v>2004</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -8107,13 +8096,13 @@
         <v>70</v>
       </c>
       <c r="AK57" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL57" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM57" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN57" s="6">
         <v>14.6</v>
@@ -8133,9 +8122,9 @@
     </row>
     <row r="58" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B58" s="38">
+        <v>147</v>
+      </c>
+      <c r="B58" s="6">
         <v>2004</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -8145,7 +8134,7 @@
         <v>48</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F58" s="6">
         <v>1</v>
@@ -8222,13 +8211,13 @@
         <v>70</v>
       </c>
       <c r="AK58" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL58" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN58" s="6">
         <v>14.6</v>
@@ -8248,9 +8237,9 @@
     </row>
     <row r="59" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="39">
+        <v>147</v>
+      </c>
+      <c r="B59" s="11">
         <v>2004</v>
       </c>
       <c r="C59" s="11" t="s">
@@ -8352,13 +8341,13 @@
         <v>70</v>
       </c>
       <c r="AK59" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL59" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AM59" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AN59" s="11">
         <v>14.6</v>
@@ -8379,9 +8368,9 @@
     </row>
     <row r="60" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="38">
+        <v>150</v>
+      </c>
+      <c r="B60" s="6">
         <v>2009</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -8471,7 +8460,7 @@
         <v>55</v>
       </c>
       <c r="AL60" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AM60" s="6" t="s">
         <v>56</v>
@@ -8494,9 +8483,9 @@
     </row>
     <row r="61" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="39">
+        <v>150</v>
+      </c>
+      <c r="B61" s="11">
         <v>2009</v>
       </c>
       <c r="C61" s="11" t="s">
@@ -8601,7 +8590,7 @@
         <v>55</v>
       </c>
       <c r="AL61" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AM61" s="11" t="s">
         <v>56</v>
@@ -8625,13 +8614,13 @@
     </row>
     <row r="62" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="39">
+        <v>152</v>
+      </c>
+      <c r="B62" s="11">
         <v>1987</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>48</v>
@@ -8703,7 +8692,7 @@
         <v>51</v>
       </c>
       <c r="AA62" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AB62" s="11">
         <v>9</v>
@@ -8756,13 +8745,13 @@
     </row>
     <row r="63" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B63" s="38">
+        <v>154</v>
+      </c>
+      <c r="B63" s="6">
         <v>2006</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>48</v>
@@ -8834,7 +8823,7 @@
         <v>51</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AD63" s="17">
         <v>0.6</v>
@@ -8856,10 +8845,10 @@
         <v>55</v>
       </c>
       <c r="AL63" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AM63" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN63" s="6">
         <v>16</v>
@@ -8879,13 +8868,13 @@
     </row>
     <row r="64" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B64" s="39">
+        <v>154</v>
+      </c>
+      <c r="B64" s="11">
         <v>2006</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>48</v>
@@ -8957,7 +8946,7 @@
         <v>51</v>
       </c>
       <c r="AA64" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC64" s="11"/>
       <c r="AD64" s="19">
@@ -8980,10 +8969,10 @@
         <v>55</v>
       </c>
       <c r="AL64" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AM64" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AN64" s="11">
         <v>16</v>
@@ -9001,18 +8990,18 @@
         <v>57</v>
       </c>
       <c r="AS64" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="38">
+        <v>160</v>
+      </c>
+      <c r="B65" s="6">
         <v>2003</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>48</v>
@@ -9080,7 +9069,7 @@
         <v>51</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AB65" s="6">
         <v>128</v>
@@ -9106,13 +9095,13 @@
         <v>70</v>
       </c>
       <c r="AK65" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM65" s="6" t="s">
         <v>165</v>
-      </c>
-      <c r="AL65" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM65" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="AN65" s="6" t="s">
         <v>51</v>
@@ -9132,13 +9121,13 @@
     </row>
     <row r="66" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="39">
+        <v>160</v>
+      </c>
+      <c r="B66" s="11">
         <v>2003</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>48</v>
@@ -9236,10 +9225,10 @@
         <v>70</v>
       </c>
       <c r="AK66" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AL66" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AM66" s="11" t="s">
         <v>56</v>
@@ -9263,13 +9252,13 @@
     </row>
     <row r="67" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="38">
+        <v>160</v>
+      </c>
+      <c r="B67" s="6">
         <v>2004</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>48</v>
@@ -9341,7 +9330,7 @@
         <v>51</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB67" s="6">
         <v>32</v>
@@ -9367,7 +9356,7 @@
         <v>70</v>
       </c>
       <c r="AK67" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AL67" s="6" t="s">
         <v>64</v>
@@ -9393,13 +9382,13 @@
     </row>
     <row r="68" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="B68" s="39">
+        <v>160</v>
+      </c>
+      <c r="B68" s="11">
         <v>2004</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>48</v>
@@ -9497,7 +9486,7 @@
         <v>70</v>
       </c>
       <c r="AK68" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AL68" s="11" t="s">
         <v>64</v>
@@ -9524,13 +9513,13 @@
     </row>
     <row r="69" spans="1:45" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" s="38">
+        <v>160</v>
+      </c>
+      <c r="B69" s="6">
         <v>2006</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>48</v>
@@ -9602,7 +9591,7 @@
         <v>132</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AB69" s="6">
         <v>59</v>
@@ -9628,13 +9617,13 @@
         <v>70</v>
       </c>
       <c r="AK69" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AL69" s="6" t="s">
         <v>64</v>
       </c>
       <c r="AM69" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN69" s="6">
         <v>12.3</v>
@@ -9654,13 +9643,13 @@
     </row>
     <row r="70" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="B70" s="39">
+        <v>160</v>
+      </c>
+      <c r="B70" s="11">
         <v>2006</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>48</v>
@@ -9758,13 +9747,13 @@
         <v>70</v>
       </c>
       <c r="AK70" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AL70" s="11" t="s">
         <v>64</v>
       </c>
       <c r="AM70" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AN70" s="11">
         <v>12.3</v>
@@ -18317,6 +18306,293 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2fde0613-ae2a-4b9e-9dd8-0a3a1ae5b78b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CE7BC97E19D5434CB0B01A1ABCBF2DDD" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e75b4284d528a6b18ce77feafc1e78ac">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2fde0613-ae2a-4b9e-9dd8-0a3a1ae5b78b" xmlns:ns4="e7bbc584-5a77-4c67-8fd7-7058eeaacc07" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d1a975e0f863fb9b7e4676b30af5bf6" ns3:_="" ns4:_="">
+    <xsd:import namespace="2fde0613-ae2a-4b9e-9dd8-0a3a1ae5b78b"/>
+    <xsd:import namespace="e7bbc584-5a77-4c67-8fd7-7058eeaacc07"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2fde0613-ae2a-4b9e-9dd8-0a3a1ae5b78b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="11" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="17" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="21" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e7bbc584-5a77-4c67-8fd7-7058eeaacc07" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{552297F0-A3BF-4A1F-8725-BEE0F1D749D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2fde0613-ae2a-4b9e-9dd8-0a3a1ae5b78b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e7bbc584-5a77-4c67-8fd7-7058eeaacc07"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04D430E4-B76F-46F8-8E39-A8821B8F0BAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31984A96-4695-4677-9A4C-937DEF19AA74}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2fde0613-ae2a-4b9e-9dd8-0a3a1ae5b78b"/>
+    <ds:schemaRef ds:uri="e7bbc584-5a77-4c67-8fd7-7058eeaacc07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Working_Dataset_Medication.xlsx
+++ b/Working_Dataset_Medication.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/rejucbu_ucl_ac_uk/Documents/Response to Psychological and Pharmacological Treatment for Depression in Children and Adolescents/apples_oranges/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70544662-0BB5-417E-BAB5-B59563697AA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A86A54F-8CE5-4550-AF6F-CB73910C5BF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="208">
   <si>
     <t>study</t>
   </si>
@@ -543,12 +543,114 @@
   <si>
     <t>Anxiety disorders (e.g. GAD, panic disorder, social phobia, specific phobia)</t>
   </si>
+  <si>
+    <t>Desvenlafaxine (high dose)</t>
+  </si>
+  <si>
+    <t>ADHD, self-injurious behaviour, insomnia</t>
+  </si>
+  <si>
+    <t>USA, Chile</t>
+  </si>
+  <si>
+    <t>Desvenlafaxine (low dose)</t>
+  </si>
+  <si>
+    <t>Durgam</t>
+  </si>
+  <si>
+    <t>Vilazodone (30mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDRS ≥40% improvement from baseline </t>
+  </si>
+  <si>
+    <t>Vilazodone (15mg)</t>
+  </si>
+  <si>
+    <t>Lundbeck</t>
+  </si>
+  <si>
+    <t>Vortioxetine (20mg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDRS ≥50% improvement </t>
+  </si>
+  <si>
+    <t>ADHD, Insomnia, Anxiety disorder, GAD, Social Anxiety Disorder</t>
+  </si>
+  <si>
+    <t>International (Bulgaria, Canada, Colombia, Estonia, France, Germany, Hungary, Italy, South Korea, Latvia, Mexico, Poland, Russia, Serbia, South Africa, Spain, Ukraine, UK, USA)</t>
+  </si>
+  <si>
+    <t>This is Findling 2022</t>
+  </si>
+  <si>
+    <t>Vortioxetine (10mg)</t>
+  </si>
+  <si>
+    <t>Vilazodone</t>
+  </si>
+  <si>
+    <t>Learning disorders, ADHD, Communication disorders, oppositional defiant disorder, anxiety disorders</t>
+  </si>
+  <si>
+    <t>USA, Canada</t>
+  </si>
+  <si>
+    <t>Le Noury</t>
+  </si>
+  <si>
+    <t>HAM-D score &lt;8 or ≥50% improvement</t>
+  </si>
+  <si>
+    <t>Anxiety disorder, Oppositional Defiant Disorder, Conduct Disorder, ADHD</t>
+  </si>
+  <si>
+    <t>Different results according to observed cases (OC) and last observation carried forward (LOCF); need to check which data should be used (for both HAMD and KSADS)</t>
+  </si>
+  <si>
+    <t>HAM-D score ≤8 or ≥50% improvement</t>
+  </si>
+  <si>
+    <t>Weihs</t>
+  </si>
+  <si>
+    <t>Desvenlafaxine</t>
+  </si>
+  <si>
+    <t>ADHD, non-suicidal inurious behaviour, insomnia, generalised anxiety disorder, oppositional defiant disorder</t>
+  </si>
+  <si>
+    <t>USA, Mexico</t>
+  </si>
+  <si>
+    <t>This paper reports demographic data (age, women%) and baseline scores but the sample is stratified (children v adolescents). Calculated a weighted average.</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Levomilnacipran (40mg)</t>
+  </si>
+  <si>
+    <t>USA, Puerto Rico</t>
+  </si>
+  <si>
+    <t>Levomilnacipran (80mg)</t>
+  </si>
+  <si>
+    <t>13 to 17</t>
+  </si>
+  <si>
+    <t>14 to 17</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -578,8 +680,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -614,6 +720,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEA9999"/>
+        <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
   </fills>
@@ -744,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -783,6 +895,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,17 +1131,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AX1003"/>
+  <dimension ref="A1:AX1032"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AP62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AW76" sqref="AW76"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="31.90625" customWidth="1"/>
     <col min="49" max="50" width="25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10833,238 +10964,4331 @@
       <c r="AX70" s="16"/>
     </row>
     <row r="71" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="Q71" s="22"/>
-      <c r="T71" s="22"/>
-      <c r="Z71" s="22"/>
-      <c r="AG71" s="22"/>
+      <c r="A71" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="38">
+        <v>2018</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" s="6">
+        <v>58.45</v>
+      </c>
+      <c r="J71" s="6">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="K71" s="9">
+        <v>121</v>
+      </c>
+      <c r="L71" s="6">
+        <v>57.28</v>
+      </c>
+      <c r="M71" s="6">
+        <v>8.94</v>
+      </c>
+      <c r="N71" s="9">
+        <v>119</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U71" s="6">
+        <v>-24.4</v>
+      </c>
+      <c r="V71" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="W71" s="6">
+        <v>121</v>
+      </c>
+      <c r="X71" s="6">
+        <v>-22.9</v>
+      </c>
+      <c r="Y71" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z71" s="9">
+        <v>119</v>
+      </c>
+      <c r="AA71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG71" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH71" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI71" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ71" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK71" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL71" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM71" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN71" s="6">
+        <v>12.87</v>
+      </c>
+      <c r="AO71" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="AP71" s="6">
+        <v>13.15</v>
+      </c>
+      <c r="AQ71" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="AR71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS71" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT71" s="6">
+        <v>62.81</v>
+      </c>
+      <c r="AU71" s="6">
+        <v>50</v>
+      </c>
+      <c r="AV71" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW71" s="6">
+        <v>42</v>
+      </c>
     </row>
     <row r="72" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="Z72" s="22"/>
-      <c r="AG72" s="22"/>
+      <c r="A72" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0</v>
+      </c>
+      <c r="G72" s="6">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q72" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="T72" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB72" s="6">
+        <v>66</v>
+      </c>
+      <c r="AC72" s="6">
+        <v>106</v>
+      </c>
+      <c r="AD72" s="26">
+        <v>0.623</v>
+      </c>
+      <c r="AE72" s="6">
+        <v>57</v>
+      </c>
+      <c r="AF72" s="6">
+        <v>102</v>
+      </c>
+      <c r="AG72" s="39">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="AH72" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI72" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ72" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK72" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL72" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM72" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN72" s="6">
+        <v>12.87</v>
+      </c>
+      <c r="AO72" s="6">
+        <v>3.01</v>
+      </c>
+      <c r="AP72" s="6">
+        <v>13.15</v>
+      </c>
+      <c r="AQ72" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="AR72" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS72" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT72" s="6">
+        <v>62.81</v>
+      </c>
+      <c r="AU72" s="6">
+        <v>50</v>
+      </c>
+      <c r="AV72" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW72" s="6">
+        <v>42</v>
+      </c>
     </row>
     <row r="73" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="Q73" s="22"/>
-      <c r="T73" s="22"/>
-      <c r="Z73" s="22"/>
-      <c r="AG73" s="22"/>
+      <c r="A73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6">
+        <v>1</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I73" s="6">
+        <v>58.52</v>
+      </c>
+      <c r="J73" s="6">
+        <v>9.18</v>
+      </c>
+      <c r="K73" s="9">
+        <v>122</v>
+      </c>
+      <c r="L73" s="6">
+        <v>57.28</v>
+      </c>
+      <c r="M73" s="6">
+        <v>8.94</v>
+      </c>
+      <c r="N73" s="9">
+        <v>119</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q73" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T73" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U73" s="6">
+        <v>-23.7</v>
+      </c>
+      <c r="V73" s="6">
+        <v>12.05</v>
+      </c>
+      <c r="W73" s="6">
+        <v>120</v>
+      </c>
+      <c r="X73" s="6">
+        <v>-22.9</v>
+      </c>
+      <c r="Y73" s="6">
+        <v>12</v>
+      </c>
+      <c r="Z73" s="9">
+        <v>119</v>
+      </c>
+      <c r="AA73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG73" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH73" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI73" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ73" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK73" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM73" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN73" s="6">
+        <v>13.07</v>
+      </c>
+      <c r="AO73" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="AP73" s="6">
+        <v>13.15</v>
+      </c>
+      <c r="AQ73" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="AR73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS73" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT73" s="6">
+        <v>56.56</v>
+      </c>
+      <c r="AU73" s="6">
+        <v>50</v>
+      </c>
+      <c r="AV73" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW73" s="6">
+        <v>42</v>
+      </c>
     </row>
     <row r="74" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AG74" s="22"/>
+      <c r="A74" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" s="11">
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <v>0</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K74" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q74" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="S74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="T74" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="U74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y74" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z74" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA74" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB74" s="11">
+        <v>59</v>
+      </c>
+      <c r="AC74" s="11">
+        <v>105</v>
+      </c>
+      <c r="AD74" s="27">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="AE74" s="11">
+        <v>57</v>
+      </c>
+      <c r="AF74" s="11">
+        <v>102</v>
+      </c>
+      <c r="AG74" s="28">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="AH74" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI74" s="11">
+        <v>8</v>
+      </c>
+      <c r="AJ74" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK74" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL74" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM74" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN74" s="11">
+        <v>13.07</v>
+      </c>
+      <c r="AO74" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="AP74" s="11">
+        <v>13.15</v>
+      </c>
+      <c r="AQ74" s="11">
+        <v>2.68</v>
+      </c>
+      <c r="AR74" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS74" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT74" s="11">
+        <v>56.56</v>
+      </c>
+      <c r="AU74" s="11">
+        <v>50</v>
+      </c>
+      <c r="AV74" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW74" s="11">
+        <v>42</v>
+      </c>
+      <c r="AX74" s="16"/>
     </row>
     <row r="75" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K75" s="22"/>
-      <c r="N75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AG75" s="22"/>
+      <c r="A75" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B75" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+      <c r="G75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" s="6">
+        <v>56.8</v>
+      </c>
+      <c r="J75" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="K75" s="9">
+        <v>180</v>
+      </c>
+      <c r="L75" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="M75" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N75" s="9">
+        <v>171</v>
+      </c>
+      <c r="O75" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="P75" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>180</v>
+      </c>
+      <c r="R75" s="6">
+        <v>34</v>
+      </c>
+      <c r="S75" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="T75" s="9">
+        <v>170</v>
+      </c>
+      <c r="U75" s="6">
+        <v>-24.2</v>
+      </c>
+      <c r="V75" s="6">
+        <v>12.07</v>
+      </c>
+      <c r="W75" s="6">
+        <v>180</v>
+      </c>
+      <c r="X75" s="6">
+        <v>-22.5</v>
+      </c>
+      <c r="Y75" s="6">
+        <v>11.73</v>
+      </c>
+      <c r="Z75" s="9">
+        <v>170</v>
+      </c>
+      <c r="AA75" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB75" s="6">
+        <v>103</v>
+      </c>
+      <c r="AC75" s="6">
+        <v>180</v>
+      </c>
+      <c r="AD75" s="26">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="AE75" s="6">
+        <v>80</v>
+      </c>
+      <c r="AF75" s="6">
+        <v>170</v>
+      </c>
+      <c r="AG75" s="39">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="AH75" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI75" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ75" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK75" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM75" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN75" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="AO75" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AP75" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="AQ75" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="AR75" s="6">
+        <v>15</v>
+      </c>
+      <c r="AS75" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT75" s="6">
+        <v>59.4</v>
+      </c>
+      <c r="AU75" s="6">
+        <v>60.2</v>
+      </c>
+      <c r="AV75" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW75" s="6">
+        <v>52</v>
+      </c>
     </row>
     <row r="76" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K76" s="22"/>
-      <c r="N76" s="22"/>
-      <c r="Q76" s="22"/>
-      <c r="T76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AG76" s="22"/>
+      <c r="A76" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O76" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P76" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="9">
+        <v>180</v>
+      </c>
+      <c r="R76" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="S76" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T76" s="9">
+        <v>170</v>
+      </c>
+      <c r="U76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y76" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z76" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA76" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB76" s="6">
+        <v>112</v>
+      </c>
+      <c r="AC76" s="6">
+        <v>180</v>
+      </c>
+      <c r="AD76" s="26">
+        <v>0.622</v>
+      </c>
+      <c r="AE76" s="6">
+        <v>92</v>
+      </c>
+      <c r="AF76" s="6">
+        <v>170</v>
+      </c>
+      <c r="AG76" s="39">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="AH76" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI76" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL76" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM76" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN76" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="AO76" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AP76" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="AQ76" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="AR76" s="6">
+        <v>15</v>
+      </c>
+      <c r="AS76" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT76" s="6">
+        <v>59.4</v>
+      </c>
+      <c r="AU76" s="6">
+        <v>60.2</v>
+      </c>
+      <c r="AV76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW76" s="6">
+        <v>52</v>
+      </c>
     </row>
     <row r="77" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K77" s="22"/>
-      <c r="N77" s="22"/>
-      <c r="Q77" s="22"/>
-      <c r="T77" s="22"/>
-      <c r="Z77" s="22"/>
-      <c r="AG77" s="22"/>
+      <c r="A77" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="6">
+        <v>1</v>
+      </c>
+      <c r="G77" s="6">
+        <v>1</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77" s="6">
+        <v>57.8</v>
+      </c>
+      <c r="J77" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K77" s="9">
+        <v>175</v>
+      </c>
+      <c r="L77" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="M77" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="N77" s="9">
+        <v>171</v>
+      </c>
+      <c r="O77" s="6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="P77" s="6">
+        <v>12</v>
+      </c>
+      <c r="Q77" s="9">
+        <v>174</v>
+      </c>
+      <c r="R77" s="6">
+        <v>34</v>
+      </c>
+      <c r="S77" s="6">
+        <v>12.9</v>
+      </c>
+      <c r="T77" s="9">
+        <v>170</v>
+      </c>
+      <c r="U77" s="6">
+        <v>-22.9</v>
+      </c>
+      <c r="V77" s="6">
+        <v>11.87</v>
+      </c>
+      <c r="W77" s="6">
+        <v>174</v>
+      </c>
+      <c r="X77" s="6">
+        <v>-22.5</v>
+      </c>
+      <c r="Y77" s="6">
+        <v>11.73</v>
+      </c>
+      <c r="Z77" s="9">
+        <v>170</v>
+      </c>
+      <c r="AA77" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB77" s="6">
+        <v>83</v>
+      </c>
+      <c r="AC77" s="6">
+        <v>174</v>
+      </c>
+      <c r="AD77" s="26">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AE77" s="6">
+        <v>80</v>
+      </c>
+      <c r="AF77" s="6">
+        <v>170</v>
+      </c>
+      <c r="AG77" s="39">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="AH77" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI77" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL77" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM77" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN77" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="AO77" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AP77" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="AQ77" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="AR77" s="6">
+        <v>15</v>
+      </c>
+      <c r="AS77" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT77" s="6">
+        <v>58.9</v>
+      </c>
+      <c r="AU77" s="6">
+        <v>60.2</v>
+      </c>
+      <c r="AV77" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW77" s="6">
+        <v>52</v>
+      </c>
     </row>
     <row r="78" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K78" s="22"/>
-      <c r="N78" s="22"/>
-      <c r="Q78" s="22"/>
-      <c r="T78" s="22"/>
-      <c r="Z78" s="22"/>
-      <c r="AG78" s="22"/>
+      <c r="A78" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" s="11">
+        <v>0</v>
+      </c>
+      <c r="G78" s="11">
+        <v>0</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N78" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O78" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P78" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="Q78" s="14">
+        <v>174</v>
+      </c>
+      <c r="R78" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="S78" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T78" s="14">
+        <v>170</v>
+      </c>
+      <c r="U78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y78" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z78" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA78" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB78" s="11">
+        <v>98</v>
+      </c>
+      <c r="AC78" s="11">
+        <v>174</v>
+      </c>
+      <c r="AD78" s="27">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="AE78" s="11">
+        <v>92</v>
+      </c>
+      <c r="AF78" s="11">
+        <v>170</v>
+      </c>
+      <c r="AG78" s="28">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="AH78" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI78" s="11">
+        <v>8</v>
+      </c>
+      <c r="AJ78" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK78" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL78" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM78" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN78" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="AO78" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="AP78" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="AQ78" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="AR78" s="11">
+        <v>15</v>
+      </c>
+      <c r="AS78" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT78" s="11">
+        <v>58.9</v>
+      </c>
+      <c r="AU78" s="11">
+        <v>60.2</v>
+      </c>
+      <c r="AV78" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW78" s="11">
+        <v>52</v>
+      </c>
+      <c r="AX78" s="16"/>
     </row>
     <row r="79" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="T79" s="22"/>
-      <c r="Z79" s="22"/>
-      <c r="AG79" s="22"/>
+      <c r="A79" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="6">
+        <v>1</v>
+      </c>
+      <c r="G79" s="6">
+        <v>1</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I79" s="6">
+        <v>62.5</v>
+      </c>
+      <c r="J79" s="6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K79" s="9">
+        <v>159</v>
+      </c>
+      <c r="L79" s="6">
+        <v>60.6</v>
+      </c>
+      <c r="M79" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="N79" s="9">
+        <v>153</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q79" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T79" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U79" s="6">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="V79" s="6">
+        <v>14.14</v>
+      </c>
+      <c r="W79" s="6">
+        <v>139</v>
+      </c>
+      <c r="X79" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="Y79" s="6">
+        <v>14.05</v>
+      </c>
+      <c r="Z79" s="9">
+        <v>137</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB79" s="6">
+        <v>60</v>
+      </c>
+      <c r="AC79" s="6">
+        <v>139</v>
+      </c>
+      <c r="AD79" s="26">
+        <v>0.432</v>
+      </c>
+      <c r="AE79" s="6">
+        <v>49</v>
+      </c>
+      <c r="AF79" s="6">
+        <v>137</v>
+      </c>
+      <c r="AG79" s="39">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH79" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI79" s="6">
+        <v>12</v>
+      </c>
+      <c r="AJ79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK79" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL79" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM79" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN79" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="AO79" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="AP79" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AQ79" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AR79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS79" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT79" s="6">
+        <v>59.9</v>
+      </c>
+      <c r="AU79" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="AV79" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW79" s="6">
+        <v>124</v>
+      </c>
+      <c r="AX79" s="6" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="80" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K80" s="22"/>
-      <c r="N80" s="22"/>
-      <c r="Q80" s="22"/>
-      <c r="T80" s="22"/>
-      <c r="Z80" s="22"/>
-      <c r="AG80" s="22"/>
-    </row>
-    <row r="81" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K81" s="22"/>
-      <c r="N81" s="22"/>
-      <c r="Q81" s="22"/>
-      <c r="T81" s="22"/>
-      <c r="Z81" s="22"/>
-      <c r="AG81" s="22"/>
-    </row>
-    <row r="82" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AG82" s="22"/>
-    </row>
-    <row r="83" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K83" s="22"/>
-      <c r="N83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AG83" s="22"/>
-    </row>
-    <row r="84" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K84" s="22"/>
-      <c r="N84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="Z84" s="22"/>
-      <c r="AG84" s="22"/>
-    </row>
-    <row r="85" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K85" s="22"/>
-      <c r="N85" s="22"/>
-      <c r="Q85" s="22"/>
-      <c r="T85" s="22"/>
-      <c r="Z85" s="22"/>
-      <c r="AG85" s="22"/>
-    </row>
-    <row r="86" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K86" s="22"/>
-      <c r="N86" s="22"/>
-      <c r="Q86" s="22"/>
-      <c r="T86" s="22"/>
-      <c r="Z86" s="22"/>
-      <c r="AG86" s="22"/>
-    </row>
-    <row r="87" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K87" s="22"/>
-      <c r="N87" s="22"/>
-      <c r="Q87" s="22"/>
-      <c r="T87" s="22"/>
-      <c r="Z87" s="22"/>
-      <c r="AG87" s="22"/>
-    </row>
-    <row r="88" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K88" s="22"/>
-      <c r="N88" s="22"/>
-      <c r="Q88" s="22"/>
-      <c r="T88" s="22"/>
-      <c r="Z88" s="22"/>
-      <c r="AG88" s="22"/>
-    </row>
-    <row r="89" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K89" s="22"/>
-      <c r="N89" s="22"/>
-      <c r="Q89" s="22"/>
-      <c r="T89" s="22"/>
-      <c r="Z89" s="22"/>
-      <c r="AG89" s="22"/>
-    </row>
-    <row r="90" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K90" s="22"/>
-      <c r="N90" s="22"/>
-      <c r="Q90" s="22"/>
-      <c r="T90" s="22"/>
-      <c r="Z90" s="22"/>
-      <c r="AG90" s="22"/>
-    </row>
-    <row r="91" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K91" s="22"/>
-      <c r="N91" s="22"/>
-      <c r="Q91" s="22"/>
-      <c r="T91" s="22"/>
-      <c r="Z91" s="22"/>
-      <c r="AG91" s="22"/>
-    </row>
-    <row r="92" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K92" s="22"/>
-      <c r="N92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="Z92" s="22"/>
-      <c r="AG92" s="22"/>
-    </row>
-    <row r="93" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K93" s="22"/>
-      <c r="N93" s="22"/>
-      <c r="Q93" s="22"/>
-      <c r="T93" s="22"/>
-      <c r="Z93" s="22"/>
-      <c r="AG93" s="22"/>
-    </row>
-    <row r="94" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K94" s="22"/>
-      <c r="N94" s="22"/>
-      <c r="Q94" s="22"/>
-      <c r="T94" s="22"/>
-      <c r="Z94" s="22"/>
-      <c r="AG94" s="22"/>
-    </row>
-    <row r="95" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K95" s="22"/>
-      <c r="N95" s="22"/>
-      <c r="Q95" s="22"/>
-      <c r="T95" s="22"/>
-      <c r="Z95" s="22"/>
-      <c r="AG95" s="22"/>
-    </row>
-    <row r="96" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="T96" s="22"/>
-      <c r="Z96" s="22"/>
-      <c r="AG96" s="22"/>
-    </row>
-    <row r="97" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K97" s="22"/>
-      <c r="N97" s="22"/>
-      <c r="Q97" s="22"/>
-      <c r="T97" s="22"/>
-      <c r="Z97" s="22"/>
-      <c r="AG97" s="22"/>
-    </row>
-    <row r="98" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K98" s="22"/>
-      <c r="N98" s="22"/>
-      <c r="Q98" s="22"/>
-      <c r="T98" s="22"/>
-      <c r="Z98" s="22"/>
-      <c r="AG98" s="22"/>
-    </row>
-    <row r="99" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="K99" s="22"/>
-      <c r="N99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AG99" s="22"/>
-    </row>
-    <row r="100" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B80" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O80" s="6">
+        <v>2.69</v>
+      </c>
+      <c r="P80" s="6">
+        <v>1.06</v>
+      </c>
+      <c r="Q80" s="9">
+        <v>139</v>
+      </c>
+      <c r="R80" s="6">
+        <v>2.73</v>
+      </c>
+      <c r="S80" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="T80" s="9">
+        <v>137</v>
+      </c>
+      <c r="U80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z80" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG80" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH80" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI80" s="6">
+        <v>12</v>
+      </c>
+      <c r="AJ80" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK80" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL80" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM80" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN80" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="AO80" s="6">
+        <v>1.63</v>
+      </c>
+      <c r="AP80" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AQ80" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AR80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS80" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT80" s="6">
+        <v>59.9</v>
+      </c>
+      <c r="AU80" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="AV80" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW80" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="6">
+        <v>1</v>
+      </c>
+      <c r="G81" s="6">
+        <v>1</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I81" s="6">
+        <v>61.2</v>
+      </c>
+      <c r="J81" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="K81" s="9">
+        <v>145</v>
+      </c>
+      <c r="L81" s="6">
+        <v>60.6</v>
+      </c>
+      <c r="M81" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="N81" s="9">
+        <v>153</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q81" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T81" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U81" s="6">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="V81" s="6">
+        <v>14.59</v>
+      </c>
+      <c r="W81" s="6">
+        <v>126</v>
+      </c>
+      <c r="X81" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="Y81" s="6">
+        <v>14.05</v>
+      </c>
+      <c r="Z81" s="9">
+        <v>137</v>
+      </c>
+      <c r="AA81" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB81" s="6">
+        <v>53</v>
+      </c>
+      <c r="AC81" s="6">
+        <v>126</v>
+      </c>
+      <c r="AD81" s="26">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AE81" s="6">
+        <v>49</v>
+      </c>
+      <c r="AF81" s="6">
+        <v>137</v>
+      </c>
+      <c r="AG81" s="39">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH81" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI81" s="6">
+        <v>12</v>
+      </c>
+      <c r="AJ81" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK81" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL81" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM81" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN81" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AO81" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="AP81" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AQ81" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AR81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS81" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT81" s="6">
+        <v>63.3</v>
+      </c>
+      <c r="AU81" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="AV81" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW81" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="6">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K82" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N82" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O82" s="6">
+        <v>2.81</v>
+      </c>
+      <c r="P82" s="6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="Q82" s="9">
+        <v>126</v>
+      </c>
+      <c r="R82" s="6">
+        <v>2.73</v>
+      </c>
+      <c r="S82" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="T82" s="9">
+        <v>137</v>
+      </c>
+      <c r="U82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z82" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG82" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH82" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI82" s="6">
+        <v>12</v>
+      </c>
+      <c r="AJ82" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK82" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL82" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM82" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN82" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AO82" s="6">
+        <v>1.66</v>
+      </c>
+      <c r="AP82" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AQ82" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AR82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS82" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT82" s="6">
+        <v>63.3</v>
+      </c>
+      <c r="AU82" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="AV82" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW82" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="6">
+        <v>1</v>
+      </c>
+      <c r="G83" s="6">
+        <v>1</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" s="6">
+        <v>61.8</v>
+      </c>
+      <c r="J83" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="K83" s="9">
+        <v>150</v>
+      </c>
+      <c r="L83" s="6">
+        <v>60.6</v>
+      </c>
+      <c r="M83" s="6">
+        <v>9.1</v>
+      </c>
+      <c r="N83" s="9">
+        <v>153</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q83" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T83" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U83" s="6">
+        <v>-22</v>
+      </c>
+      <c r="V83" s="6">
+        <v>14.05</v>
+      </c>
+      <c r="W83" s="6">
+        <v>137</v>
+      </c>
+      <c r="X83" s="6">
+        <v>-18.2</v>
+      </c>
+      <c r="Y83" s="6">
+        <v>14.05</v>
+      </c>
+      <c r="Z83" s="9">
+        <v>137</v>
+      </c>
+      <c r="AA83" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="AB83" s="6">
+        <v>68</v>
+      </c>
+      <c r="AC83" s="6">
+        <v>137</v>
+      </c>
+      <c r="AD83" s="26">
+        <v>0.496</v>
+      </c>
+      <c r="AE83" s="6">
+        <v>49</v>
+      </c>
+      <c r="AF83" s="6">
+        <v>137</v>
+      </c>
+      <c r="AG83" s="39">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AH83" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI83" s="6">
+        <v>12</v>
+      </c>
+      <c r="AJ83" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK83" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL83" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM83" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN83" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AO83" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AP83" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AQ83" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AR83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS83" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT83" s="6">
+        <v>67.3</v>
+      </c>
+      <c r="AU83" s="6">
+        <v>68.2</v>
+      </c>
+      <c r="AV83" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW83" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F84" s="11">
+        <v>0</v>
+      </c>
+      <c r="G84" s="11">
+        <v>0</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K84" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O84" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="P84" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="Q84" s="14">
+        <v>137</v>
+      </c>
+      <c r="R84" s="11">
+        <v>2.73</v>
+      </c>
+      <c r="S84" s="11">
+        <v>1.05</v>
+      </c>
+      <c r="T84" s="14">
+        <v>137</v>
+      </c>
+      <c r="U84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z84" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG84" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI84" s="11">
+        <v>12</v>
+      </c>
+      <c r="AJ84" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK84" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL84" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM84" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN84" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="AO84" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="AP84" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="AQ84" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="AR84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS84" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT84" s="11">
+        <v>67.3</v>
+      </c>
+      <c r="AU84" s="11">
+        <v>68.2</v>
+      </c>
+      <c r="AV84" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW84" s="11">
+        <v>124</v>
+      </c>
+      <c r="AX84" s="16"/>
+    </row>
+    <row r="85" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+      <c r="G85" s="6">
+        <v>1</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I85" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="J85" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="K85" s="9">
+        <v>186</v>
+      </c>
+      <c r="L85" s="6">
+        <v>57.7</v>
+      </c>
+      <c r="M85" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N85" s="9">
+        <v>182</v>
+      </c>
+      <c r="O85" s="6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="P85" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="Q85" s="9">
+        <v>186</v>
+      </c>
+      <c r="R85" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="S85" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="T85" s="9">
+        <v>182</v>
+      </c>
+      <c r="U85" s="6">
+        <v>-20.7</v>
+      </c>
+      <c r="V85" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="W85" s="6">
+        <v>186</v>
+      </c>
+      <c r="X85" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="Y85" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z85" s="9">
+        <v>182</v>
+      </c>
+      <c r="AA85" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB85" s="6">
+        <v>81</v>
+      </c>
+      <c r="AC85" s="6">
+        <v>158</v>
+      </c>
+      <c r="AD85" s="26">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="AE85" s="6">
+        <v>67</v>
+      </c>
+      <c r="AF85" s="6">
+        <v>155</v>
+      </c>
+      <c r="AG85" s="39">
+        <v>0.432</v>
+      </c>
+      <c r="AH85" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI85" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ85" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK85" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL85" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM85" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN85" s="6">
+        <v>13</v>
+      </c>
+      <c r="AO85" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="AP85" s="6">
+        <v>13</v>
+      </c>
+      <c r="AQ85" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="AR85" s="6">
+        <v>13</v>
+      </c>
+      <c r="AS85" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT85" s="6">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AU85" s="6">
+        <v>57</v>
+      </c>
+      <c r="AV85" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW85" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0</v>
+      </c>
+      <c r="G86" s="6">
+        <v>0</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K86" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O86" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="P86" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="Q86" s="9">
+        <v>186</v>
+      </c>
+      <c r="R86" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="S86" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="T86" s="9">
+        <v>182</v>
+      </c>
+      <c r="U86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z86" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG86" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH86" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI86" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ86" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK86" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL86" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM86" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN86" s="6">
+        <v>13</v>
+      </c>
+      <c r="AO86" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="AP86" s="6">
+        <v>13</v>
+      </c>
+      <c r="AQ86" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="AR86" s="6">
+        <v>13</v>
+      </c>
+      <c r="AS86" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT86" s="6">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="AU86" s="6">
+        <v>57</v>
+      </c>
+      <c r="AV86" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW86" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+      <c r="G87" s="6">
+        <v>1</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I87" s="6">
+        <v>58.1</v>
+      </c>
+      <c r="J87" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K87" s="9">
+        <v>97</v>
+      </c>
+      <c r="L87" s="6">
+        <v>57.7</v>
+      </c>
+      <c r="M87" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N87" s="9">
+        <v>182</v>
+      </c>
+      <c r="O87" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="P87" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="Q87" s="9">
+        <v>97</v>
+      </c>
+      <c r="R87" s="6">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="S87" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="T87" s="9">
+        <v>182</v>
+      </c>
+      <c r="U87" s="6">
+        <v>-22.71</v>
+      </c>
+      <c r="V87" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="W87" s="6">
+        <v>97</v>
+      </c>
+      <c r="X87" s="6">
+        <v>-20.3</v>
+      </c>
+      <c r="Y87" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z87" s="9">
+        <v>182</v>
+      </c>
+      <c r="AA87" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB87" s="6">
+        <v>46</v>
+      </c>
+      <c r="AC87" s="6">
+        <v>84</v>
+      </c>
+      <c r="AD87" s="26">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="AE87" s="6">
+        <v>67</v>
+      </c>
+      <c r="AF87" s="6">
+        <v>155</v>
+      </c>
+      <c r="AG87" s="39">
+        <v>0.432</v>
+      </c>
+      <c r="AH87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI87" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ87" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL87" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM87" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN87" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="AO87" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="AP87" s="6">
+        <v>13</v>
+      </c>
+      <c r="AQ87" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="AR87" s="6">
+        <v>13</v>
+      </c>
+      <c r="AS87" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT87" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="AU87" s="6">
+        <v>57</v>
+      </c>
+      <c r="AV87" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW87" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" s="11">
+        <v>0</v>
+      </c>
+      <c r="G88" s="11">
+        <v>0</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N88" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="O88" s="11">
+        <v>2.4</v>
+      </c>
+      <c r="P88" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="Q88" s="14">
+        <v>97</v>
+      </c>
+      <c r="R88" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="S88" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="T88" s="14">
+        <v>182</v>
+      </c>
+      <c r="U88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y88" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z88" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG88" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI88" s="11">
+        <v>8</v>
+      </c>
+      <c r="AJ88" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK88" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL88" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM88" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN88" s="11">
+        <v>13.2</v>
+      </c>
+      <c r="AO88" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="AP88" s="11">
+        <v>13</v>
+      </c>
+      <c r="AQ88" s="11">
+        <v>2.9</v>
+      </c>
+      <c r="AR88" s="11">
+        <v>13</v>
+      </c>
+      <c r="AS88" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT88" s="11">
+        <v>52.6</v>
+      </c>
+      <c r="AU88" s="11">
+        <v>57</v>
+      </c>
+      <c r="AV88" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW88" s="11">
+        <v>60</v>
+      </c>
+      <c r="AX88" s="16"/>
+    </row>
+    <row r="89" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+      <c r="G89" s="6">
+        <v>1</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I89" s="6">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J89" s="7">
+        <v>4.24</v>
+      </c>
+      <c r="K89" s="9">
+        <v>93</v>
+      </c>
+      <c r="L89" s="6">
+        <v>19</v>
+      </c>
+      <c r="M89" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N89" s="9">
+        <v>87</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q89" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T89" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U89" s="6">
+        <v>-10.7</v>
+      </c>
+      <c r="V89" s="6">
+        <v>7.68</v>
+      </c>
+      <c r="W89" s="6">
+        <v>90</v>
+      </c>
+      <c r="X89" s="6">
+        <v>-9.1</v>
+      </c>
+      <c r="Y89" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="Z89" s="9">
+        <v>87</v>
+      </c>
+      <c r="AA89" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB89" s="6">
+        <v>60</v>
+      </c>
+      <c r="AC89" s="6">
+        <v>90</v>
+      </c>
+      <c r="AD89" s="26">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="AE89" s="6">
+        <v>48</v>
+      </c>
+      <c r="AF89" s="6">
+        <v>87</v>
+      </c>
+      <c r="AG89" s="39">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AH89" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI89" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ89" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK89" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL89" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM89" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN89" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AO89" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AP89" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="AQ89" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AR89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS89" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT89" s="6">
+        <v>60.3</v>
+      </c>
+      <c r="AU89" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="AV89" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW89" s="6">
+        <v>12</v>
+      </c>
+      <c r="AX89" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0</v>
+      </c>
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I90" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="J90" s="40">
+        <v>9.5</v>
+      </c>
+      <c r="K90" s="9">
+        <v>93</v>
+      </c>
+      <c r="L90" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="M90" s="6">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="N90" s="9">
+        <v>87</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q90" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T90" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U90" s="6">
+        <v>-11.4</v>
+      </c>
+      <c r="V90" s="6">
+        <v>7.65</v>
+      </c>
+      <c r="W90" s="6">
+        <v>83</v>
+      </c>
+      <c r="X90" s="6">
+        <v>-9.4</v>
+      </c>
+      <c r="Y90" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="Z90" s="9">
+        <v>85</v>
+      </c>
+      <c r="AA90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG90" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH90" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI90" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ90" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK90" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL90" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM90" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN90" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AO90" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AP90" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="AQ90" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AR90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS90" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT90" s="6">
+        <v>60.3</v>
+      </c>
+      <c r="AU90" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="AV90" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW90" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B91" s="6">
+        <v>2015</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
+      <c r="G91" s="6">
+        <v>1</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I91" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J91" s="6">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="K91" s="9">
+        <v>95</v>
+      </c>
+      <c r="L91" s="6">
+        <v>19</v>
+      </c>
+      <c r="M91" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N91" s="9">
+        <v>87</v>
+      </c>
+      <c r="O91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q91" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T91" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U91" s="6">
+        <v>-9</v>
+      </c>
+      <c r="V91" s="6">
+        <v>7.85</v>
+      </c>
+      <c r="W91" s="6">
+        <v>94</v>
+      </c>
+      <c r="X91" s="6">
+        <v>-9.1</v>
+      </c>
+      <c r="Y91" s="6">
+        <v>0.83</v>
+      </c>
+      <c r="Z91" s="9">
+        <v>87</v>
+      </c>
+      <c r="AA91" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB91" s="6">
+        <v>55</v>
+      </c>
+      <c r="AC91" s="6">
+        <v>94</v>
+      </c>
+      <c r="AD91" s="26">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AE91" s="6">
+        <v>48</v>
+      </c>
+      <c r="AF91" s="6">
+        <v>87</v>
+      </c>
+      <c r="AG91" s="39">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="AH91" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI91" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ91" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK91" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL91" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM91" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN91" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="AO91" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AP91" s="6">
+        <v>15.1</v>
+      </c>
+      <c r="AQ91" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="AR91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS91" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT91" s="6">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AU91" s="6">
+        <v>52.6</v>
+      </c>
+      <c r="AV91" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW91" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I92" s="11">
+        <v>27.5</v>
+      </c>
+      <c r="J92" s="11">
+        <v>4.97</v>
+      </c>
+      <c r="K92" s="14">
+        <v>95</v>
+      </c>
+      <c r="L92" s="11">
+        <v>28.3</v>
+      </c>
+      <c r="M92" s="11">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="N92" s="14">
+        <v>87</v>
+      </c>
+      <c r="O92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q92" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T92" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U92" s="11">
+        <v>-9.5</v>
+      </c>
+      <c r="V92" s="11">
+        <v>7.69</v>
+      </c>
+      <c r="W92" s="11">
+        <v>88</v>
+      </c>
+      <c r="X92" s="11">
+        <v>-9.4</v>
+      </c>
+      <c r="Y92" s="11">
+        <v>0.83</v>
+      </c>
+      <c r="Z92" s="14">
+        <v>85</v>
+      </c>
+      <c r="AA92" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB92" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC92" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD92" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE92" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF92" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG92" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH92" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI92" s="11">
+        <v>8</v>
+      </c>
+      <c r="AJ92" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK92" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL92" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM92" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN92" s="11">
+        <v>14.9</v>
+      </c>
+      <c r="AO92" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="AP92" s="11">
+        <v>15.1</v>
+      </c>
+      <c r="AQ92" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="AR92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS92" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT92" s="11">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="AU92" s="11">
+        <v>52.6</v>
+      </c>
+      <c r="AV92" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW92" s="11">
+        <v>12</v>
+      </c>
+      <c r="AX92" s="16"/>
+    </row>
+    <row r="93" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B93" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="21">
+        <v>1</v>
+      </c>
+      <c r="G93" s="21">
+        <v>1</v>
+      </c>
+      <c r="H93" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I93" s="21">
+        <v>56.337000000000003</v>
+      </c>
+      <c r="J93" s="21">
+        <v>9.5850000000000009</v>
+      </c>
+      <c r="K93" s="41">
+        <v>115</v>
+      </c>
+      <c r="L93" s="21">
+        <v>57.06</v>
+      </c>
+      <c r="M93" s="21">
+        <v>8.91</v>
+      </c>
+      <c r="N93" s="41">
+        <v>112</v>
+      </c>
+      <c r="O93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q93" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="S93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T93" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="U93" s="21">
+        <v>-22.6</v>
+      </c>
+      <c r="V93" s="21">
+        <v>12.547000000000001</v>
+      </c>
+      <c r="W93" s="21">
+        <v>115</v>
+      </c>
+      <c r="X93" s="21">
+        <v>-23.1</v>
+      </c>
+      <c r="Y93" s="21">
+        <v>12.488</v>
+      </c>
+      <c r="Z93" s="41">
+        <v>112</v>
+      </c>
+      <c r="AA93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG93" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH93" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI93" s="21">
+        <v>8</v>
+      </c>
+      <c r="AJ93" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK93" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL93" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM93" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN93" s="21">
+        <v>12.869</v>
+      </c>
+      <c r="AO93" s="21">
+        <v>1.46</v>
+      </c>
+      <c r="AP93" s="21">
+        <v>12.65</v>
+      </c>
+      <c r="AQ93" s="21">
+        <v>1.425</v>
+      </c>
+      <c r="AR93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS93" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT93" s="21">
+        <v>55.139000000000003</v>
+      </c>
+      <c r="AU93" s="21">
+        <v>57.5</v>
+      </c>
+      <c r="AV93" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW93" s="42">
+        <v>43</v>
+      </c>
+      <c r="AX93" s="45" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0</v>
+      </c>
+      <c r="G94" s="6">
+        <v>0</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K94" s="9">
+        <v>115</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N94" s="9">
+        <v>112</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q94" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T94" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="U94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="W94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="X94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z94" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA94" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB94" s="6">
+        <v>68</v>
+      </c>
+      <c r="AC94" s="6">
+        <v>99</v>
+      </c>
+      <c r="AD94" s="26">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="AE94" s="6">
+        <v>62</v>
+      </c>
+      <c r="AF94" s="6">
+        <v>99</v>
+      </c>
+      <c r="AG94" s="39">
+        <v>0.626</v>
+      </c>
+      <c r="AH94" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI94" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ94" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK94" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL94" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP94" s="6">
+        <v>12.65</v>
+      </c>
+      <c r="AQ94" s="6">
+        <v>1.425</v>
+      </c>
+      <c r="AR94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT94" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU94" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="AV94" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW94" s="43">
+        <v>43</v>
+      </c>
+      <c r="AX94" s="46"/>
+    </row>
+    <row r="95" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="B95" s="21">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="21">
+        <v>1</v>
+      </c>
+      <c r="G95" s="21">
+        <v>1</v>
+      </c>
+      <c r="H95" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I95" s="21">
+        <v>56.256</v>
+      </c>
+      <c r="J95" s="21">
+        <v>8.34</v>
+      </c>
+      <c r="K95" s="41">
+        <v>112</v>
+      </c>
+      <c r="L95" s="21">
+        <v>57.06</v>
+      </c>
+      <c r="M95" s="21">
+        <v>8.91</v>
+      </c>
+      <c r="N95" s="41">
+        <v>112</v>
+      </c>
+      <c r="O95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q95" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="R95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="S95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="T95" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="U95" s="21">
+        <v>-24.8</v>
+      </c>
+      <c r="V95" s="21">
+        <v>12.382</v>
+      </c>
+      <c r="W95" s="21">
+        <v>112</v>
+      </c>
+      <c r="X95" s="21">
+        <v>-23.1</v>
+      </c>
+      <c r="Y95" s="21">
+        <v>12.488</v>
+      </c>
+      <c r="Z95" s="41">
+        <v>112</v>
+      </c>
+      <c r="AA95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG95" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH95" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI95" s="21">
+        <v>8</v>
+      </c>
+      <c r="AJ95" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK95" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL95" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM95" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN95" s="21">
+        <v>12.65</v>
+      </c>
+      <c r="AO95" s="21">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="AP95" s="21">
+        <v>12.65</v>
+      </c>
+      <c r="AQ95" s="21">
+        <v>1.425</v>
+      </c>
+      <c r="AR95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT95" s="21">
+        <v>50.74</v>
+      </c>
+      <c r="AU95" s="21">
+        <v>57.5</v>
+      </c>
+      <c r="AV95" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW95" s="42">
+        <v>43</v>
+      </c>
+      <c r="AX95" s="46"/>
+    </row>
+    <row r="96" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B96" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K96" s="14">
+        <v>112</v>
+      </c>
+      <c r="M96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N96" s="14">
+        <v>112</v>
+      </c>
+      <c r="O96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q96" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T96" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U96" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V96" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="W96" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="X96" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y96" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z96" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA96" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB96" s="11">
+        <v>79</v>
+      </c>
+      <c r="AC96" s="11">
+        <v>101</v>
+      </c>
+      <c r="AD96" s="27">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AE96" s="11">
+        <v>62</v>
+      </c>
+      <c r="AF96" s="11">
+        <v>99</v>
+      </c>
+      <c r="AG96" s="28">
+        <v>0.626</v>
+      </c>
+      <c r="AH96" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI96" s="11">
+        <v>8</v>
+      </c>
+      <c r="AJ96" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK96" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL96" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM96" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP96" s="6">
+        <v>12.65</v>
+      </c>
+      <c r="AQ96" s="6">
+        <v>1.425</v>
+      </c>
+      <c r="AR96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT96" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU96" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="AV96" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW96" s="44">
+        <v>43</v>
+      </c>
+      <c r="AX96" s="47"/>
+    </row>
+    <row r="97" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+      <c r="G97" s="6">
+        <v>1</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I97" s="6">
+        <v>61.8</v>
+      </c>
+      <c r="J97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K97" s="9">
+        <v>134</v>
+      </c>
+      <c r="L97" s="6">
+        <v>61.1</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N97" s="9">
+        <v>140</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q97" s="9">
+        <v>115</v>
+      </c>
+      <c r="R97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T97" s="9">
+        <v>118</v>
+      </c>
+      <c r="U97" s="6">
+        <v>-23.28</v>
+      </c>
+      <c r="V97" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="W97" s="6">
+        <v>115</v>
+      </c>
+      <c r="X97" s="6">
+        <v>-22.9</v>
+      </c>
+      <c r="Y97" s="6">
+        <v>11.84</v>
+      </c>
+      <c r="Z97" s="9">
+        <v>118</v>
+      </c>
+      <c r="AA97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG97" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH97" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI97" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ97" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL97" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM97" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN97" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AO97" s="6">
+        <v>1.62</v>
+      </c>
+      <c r="AP97" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="AQ97" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="AR97" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="AS97" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="AT97" s="6">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AU97" s="6">
+        <v>69.5</v>
+      </c>
+      <c r="AV97" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW97" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" s="6">
+        <v>2020</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1</v>
+      </c>
+      <c r="G98" s="6">
+        <v>1</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I98" s="6">
+        <v>59.4</v>
+      </c>
+      <c r="J98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K98" s="9">
+        <v>138</v>
+      </c>
+      <c r="L98" s="6">
+        <v>61.1</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="N98" s="9">
+        <v>140</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q98" s="9">
+        <v>110</v>
+      </c>
+      <c r="R98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T98" s="9">
+        <v>118</v>
+      </c>
+      <c r="U98" s="6">
+        <v>-22.64</v>
+      </c>
+      <c r="V98" s="6">
+        <v>11.74</v>
+      </c>
+      <c r="W98" s="6">
+        <v>110</v>
+      </c>
+      <c r="X98" s="6">
+        <v>-22.9</v>
+      </c>
+      <c r="Y98" s="6">
+        <v>11.84</v>
+      </c>
+      <c r="Z98" s="9">
+        <v>118</v>
+      </c>
+      <c r="AA98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG98" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH98" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI98" s="6">
+        <v>8</v>
+      </c>
+      <c r="AJ98" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL98" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM98" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN98" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="AO98" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="AP98" s="6">
+        <v>14.3</v>
+      </c>
+      <c r="AQ98" s="6">
+        <v>1.59</v>
+      </c>
+      <c r="AR98" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="AS98" s="6">
+        <v>1.67</v>
+      </c>
+      <c r="AT98" s="6">
+        <v>63</v>
+      </c>
+      <c r="AU98" s="6">
+        <v>69.5</v>
+      </c>
+      <c r="AV98" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW98" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B99" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" s="11">
+        <v>1</v>
+      </c>
+      <c r="G99" s="11">
+        <v>1</v>
+      </c>
+      <c r="H99" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I99" s="11">
+        <v>61.5</v>
+      </c>
+      <c r="J99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K99" s="14">
+        <v>134</v>
+      </c>
+      <c r="L99" s="11">
+        <v>61.1</v>
+      </c>
+      <c r="M99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N99" s="14">
+        <v>140</v>
+      </c>
+      <c r="O99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q99" s="14">
+        <v>112</v>
+      </c>
+      <c r="R99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T99" s="14">
+        <v>118</v>
+      </c>
+      <c r="U99" s="11">
+        <v>-24.37</v>
+      </c>
+      <c r="V99" s="11">
+        <v>11.85</v>
+      </c>
+      <c r="W99" s="11">
+        <v>112</v>
+      </c>
+      <c r="X99" s="11">
+        <v>-22.9</v>
+      </c>
+      <c r="Y99" s="11">
+        <v>11.84</v>
+      </c>
+      <c r="Z99" s="14">
+        <v>118</v>
+      </c>
+      <c r="AA99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG99" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH99" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI99" s="11">
+        <v>8</v>
+      </c>
+      <c r="AJ99" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK99" s="16"/>
+      <c r="AL99" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AM99" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AN99" s="11">
+        <v>14.7</v>
+      </c>
+      <c r="AO99" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="AP99" s="11">
+        <v>14.3</v>
+      </c>
+      <c r="AQ99" s="11">
+        <v>1.59</v>
+      </c>
+      <c r="AR99" s="11">
+        <v>14.7</v>
+      </c>
+      <c r="AS99" s="11">
+        <v>1.67</v>
+      </c>
+      <c r="AT99" s="11">
+        <v>62.7</v>
+      </c>
+      <c r="AU99" s="11">
+        <v>69.5</v>
+      </c>
+      <c r="AV99" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW99" s="11">
+        <v>49</v>
+      </c>
+      <c r="AX99" s="16"/>
+    </row>
+    <row r="100" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K100" s="22"/>
       <c r="N100" s="22"/>
       <c r="Q100" s="22"/>
@@ -11072,7 +15296,7 @@
       <c r="Z100" s="22"/>
       <c r="AG100" s="22"/>
     </row>
-    <row r="101" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K101" s="22"/>
       <c r="N101" s="22"/>
       <c r="Q101" s="22"/>
@@ -11080,7 +15304,7 @@
       <c r="Z101" s="22"/>
       <c r="AG101" s="22"/>
     </row>
-    <row r="102" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K102" s="22"/>
       <c r="N102" s="22"/>
       <c r="Q102" s="22"/>
@@ -11088,7 +15312,7 @@
       <c r="Z102" s="22"/>
       <c r="AG102" s="22"/>
     </row>
-    <row r="103" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K103" s="22"/>
       <c r="N103" s="22"/>
       <c r="Q103" s="22"/>
@@ -11096,7 +15320,7 @@
       <c r="Z103" s="22"/>
       <c r="AG103" s="22"/>
     </row>
-    <row r="104" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K104" s="22"/>
       <c r="N104" s="22"/>
       <c r="Q104" s="22"/>
@@ -11104,7 +15328,7 @@
       <c r="Z104" s="22"/>
       <c r="AG104" s="22"/>
     </row>
-    <row r="105" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K105" s="22"/>
       <c r="N105" s="22"/>
       <c r="Q105" s="22"/>
@@ -11112,7 +15336,7 @@
       <c r="Z105" s="22"/>
       <c r="AG105" s="22"/>
     </row>
-    <row r="106" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K106" s="22"/>
       <c r="N106" s="22"/>
       <c r="Q106" s="22"/>
@@ -11120,7 +15344,7 @@
       <c r="Z106" s="22"/>
       <c r="AG106" s="22"/>
     </row>
-    <row r="107" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K107" s="22"/>
       <c r="N107" s="22"/>
       <c r="Q107" s="22"/>
@@ -11128,7 +15352,7 @@
       <c r="Z107" s="22"/>
       <c r="AG107" s="22"/>
     </row>
-    <row r="108" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K108" s="22"/>
       <c r="N108" s="22"/>
       <c r="Q108" s="22"/>
@@ -11136,7 +15360,7 @@
       <c r="Z108" s="22"/>
       <c r="AG108" s="22"/>
     </row>
-    <row r="109" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K109" s="22"/>
       <c r="N109" s="22"/>
       <c r="Q109" s="22"/>
@@ -11144,7 +15368,7 @@
       <c r="Z109" s="22"/>
       <c r="AG109" s="22"/>
     </row>
-    <row r="110" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K110" s="22"/>
       <c r="N110" s="22"/>
       <c r="Q110" s="22"/>
@@ -11152,7 +15376,7 @@
       <c r="Z110" s="22"/>
       <c r="AG110" s="22"/>
     </row>
-    <row r="111" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K111" s="22"/>
       <c r="N111" s="22"/>
       <c r="Q111" s="22"/>
@@ -11160,7 +15384,7 @@
       <c r="Z111" s="22"/>
       <c r="AG111" s="22"/>
     </row>
-    <row r="112" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:50" ht="12.5" x14ac:dyDescent="0.25">
       <c r="K112" s="22"/>
       <c r="N112" s="22"/>
       <c r="Q112" s="22"/>
@@ -18296,7 +22520,242 @@
       <c r="Z1003" s="22"/>
       <c r="AG1003" s="22"/>
     </row>
+    <row r="1004" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1004" s="22"/>
+      <c r="N1004" s="22"/>
+      <c r="Q1004" s="22"/>
+      <c r="T1004" s="22"/>
+      <c r="Z1004" s="22"/>
+      <c r="AG1004" s="22"/>
+    </row>
+    <row r="1005" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1005" s="22"/>
+      <c r="N1005" s="22"/>
+      <c r="Q1005" s="22"/>
+      <c r="T1005" s="22"/>
+      <c r="Z1005" s="22"/>
+      <c r="AG1005" s="22"/>
+    </row>
+    <row r="1006" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1006" s="22"/>
+      <c r="N1006" s="22"/>
+      <c r="Q1006" s="22"/>
+      <c r="T1006" s="22"/>
+      <c r="Z1006" s="22"/>
+      <c r="AG1006" s="22"/>
+    </row>
+    <row r="1007" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1007" s="22"/>
+      <c r="N1007" s="22"/>
+      <c r="Q1007" s="22"/>
+      <c r="T1007" s="22"/>
+      <c r="Z1007" s="22"/>
+      <c r="AG1007" s="22"/>
+    </row>
+    <row r="1008" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1008" s="22"/>
+      <c r="N1008" s="22"/>
+      <c r="Q1008" s="22"/>
+      <c r="T1008" s="22"/>
+      <c r="Z1008" s="22"/>
+      <c r="AG1008" s="22"/>
+    </row>
+    <row r="1009" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1009" s="22"/>
+      <c r="N1009" s="22"/>
+      <c r="Q1009" s="22"/>
+      <c r="T1009" s="22"/>
+      <c r="Z1009" s="22"/>
+      <c r="AG1009" s="22"/>
+    </row>
+    <row r="1010" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1010" s="22"/>
+      <c r="N1010" s="22"/>
+      <c r="Q1010" s="22"/>
+      <c r="T1010" s="22"/>
+      <c r="Z1010" s="22"/>
+      <c r="AG1010" s="22"/>
+    </row>
+    <row r="1011" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1011" s="22"/>
+      <c r="N1011" s="22"/>
+      <c r="Q1011" s="22"/>
+      <c r="T1011" s="22"/>
+      <c r="Z1011" s="22"/>
+      <c r="AG1011" s="22"/>
+    </row>
+    <row r="1012" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1012" s="22"/>
+      <c r="N1012" s="22"/>
+      <c r="Q1012" s="22"/>
+      <c r="T1012" s="22"/>
+      <c r="Z1012" s="22"/>
+      <c r="AG1012" s="22"/>
+    </row>
+    <row r="1013" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1013" s="22"/>
+      <c r="N1013" s="22"/>
+      <c r="Q1013" s="22"/>
+      <c r="T1013" s="22"/>
+      <c r="Z1013" s="22"/>
+      <c r="AG1013" s="22"/>
+    </row>
+    <row r="1014" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1014" s="22"/>
+      <c r="N1014" s="22"/>
+      <c r="Q1014" s="22"/>
+      <c r="T1014" s="22"/>
+      <c r="Z1014" s="22"/>
+      <c r="AG1014" s="22"/>
+    </row>
+    <row r="1015" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1015" s="22"/>
+      <c r="N1015" s="22"/>
+      <c r="Q1015" s="22"/>
+      <c r="T1015" s="22"/>
+      <c r="Z1015" s="22"/>
+      <c r="AG1015" s="22"/>
+    </row>
+    <row r="1016" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1016" s="22"/>
+      <c r="N1016" s="22"/>
+      <c r="Q1016" s="22"/>
+      <c r="T1016" s="22"/>
+      <c r="Z1016" s="22"/>
+      <c r="AG1016" s="22"/>
+    </row>
+    <row r="1017" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1017" s="22"/>
+      <c r="N1017" s="22"/>
+      <c r="Q1017" s="22"/>
+      <c r="T1017" s="22"/>
+      <c r="Z1017" s="22"/>
+      <c r="AG1017" s="22"/>
+    </row>
+    <row r="1018" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1018" s="22"/>
+      <c r="N1018" s="22"/>
+      <c r="Q1018" s="22"/>
+      <c r="T1018" s="22"/>
+      <c r="Z1018" s="22"/>
+      <c r="AG1018" s="22"/>
+    </row>
+    <row r="1019" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1019" s="22"/>
+      <c r="N1019" s="22"/>
+      <c r="Q1019" s="22"/>
+      <c r="T1019" s="22"/>
+      <c r="Z1019" s="22"/>
+      <c r="AG1019" s="22"/>
+    </row>
+    <row r="1020" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1020" s="22"/>
+      <c r="N1020" s="22"/>
+      <c r="Q1020" s="22"/>
+      <c r="T1020" s="22"/>
+      <c r="Z1020" s="22"/>
+      <c r="AG1020" s="22"/>
+    </row>
+    <row r="1021" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1021" s="22"/>
+      <c r="N1021" s="22"/>
+      <c r="Q1021" s="22"/>
+      <c r="T1021" s="22"/>
+      <c r="Z1021" s="22"/>
+      <c r="AG1021" s="22"/>
+    </row>
+    <row r="1022" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1022" s="22"/>
+      <c r="N1022" s="22"/>
+      <c r="Q1022" s="22"/>
+      <c r="T1022" s="22"/>
+      <c r="Z1022" s="22"/>
+      <c r="AG1022" s="22"/>
+    </row>
+    <row r="1023" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1023" s="22"/>
+      <c r="N1023" s="22"/>
+      <c r="Q1023" s="22"/>
+      <c r="T1023" s="22"/>
+      <c r="Z1023" s="22"/>
+      <c r="AG1023" s="22"/>
+    </row>
+    <row r="1024" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1024" s="22"/>
+      <c r="N1024" s="22"/>
+      <c r="Q1024" s="22"/>
+      <c r="T1024" s="22"/>
+      <c r="Z1024" s="22"/>
+      <c r="AG1024" s="22"/>
+    </row>
+    <row r="1025" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1025" s="22"/>
+      <c r="N1025" s="22"/>
+      <c r="Q1025" s="22"/>
+      <c r="T1025" s="22"/>
+      <c r="Z1025" s="22"/>
+      <c r="AG1025" s="22"/>
+    </row>
+    <row r="1026" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1026" s="22"/>
+      <c r="N1026" s="22"/>
+      <c r="Q1026" s="22"/>
+      <c r="T1026" s="22"/>
+      <c r="Z1026" s="22"/>
+      <c r="AG1026" s="22"/>
+    </row>
+    <row r="1027" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1027" s="22"/>
+      <c r="N1027" s="22"/>
+      <c r="Q1027" s="22"/>
+      <c r="T1027" s="22"/>
+      <c r="Z1027" s="22"/>
+      <c r="AG1027" s="22"/>
+    </row>
+    <row r="1028" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1028" s="22"/>
+      <c r="N1028" s="22"/>
+      <c r="Q1028" s="22"/>
+      <c r="T1028" s="22"/>
+      <c r="Z1028" s="22"/>
+      <c r="AG1028" s="22"/>
+    </row>
+    <row r="1029" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1029" s="22"/>
+      <c r="N1029" s="22"/>
+      <c r="Q1029" s="22"/>
+      <c r="T1029" s="22"/>
+      <c r="Z1029" s="22"/>
+      <c r="AG1029" s="22"/>
+    </row>
+    <row r="1030" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1030" s="22"/>
+      <c r="N1030" s="22"/>
+      <c r="Q1030" s="22"/>
+      <c r="T1030" s="22"/>
+      <c r="Z1030" s="22"/>
+      <c r="AG1030" s="22"/>
+    </row>
+    <row r="1031" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1031" s="22"/>
+      <c r="N1031" s="22"/>
+      <c r="Q1031" s="22"/>
+      <c r="T1031" s="22"/>
+      <c r="Z1031" s="22"/>
+      <c r="AG1031" s="22"/>
+    </row>
+    <row r="1032" spans="11:33" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="K1032" s="22"/>
+      <c r="N1032" s="22"/>
+      <c r="Q1032" s="22"/>
+      <c r="T1032" s="22"/>
+      <c r="Z1032" s="22"/>
+      <c r="AG1032" s="22"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AX93:AX96"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18552,7 +23011,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D634271D-2658-4712-A2E9-33045670F22B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9A07A0B-8609-48EE-9A1F-C83B2C0B67E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -18571,7 +23030,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{163982EE-47B6-4044-989E-4640AE8B9CD1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC0AD9B3-29C1-47BB-8A3A-15B674B502FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -18579,18 +23038,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2F72B1-249E-41CB-B617-EB26C332FC5E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FF3A7B1-BF37-42F4-8464-8DCE5BB26F6A}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e7bbc584-5a77-4c67-8fd7-7058eeaacc07"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="2fde0613-ae2a-4b9e-9dd8-0a3a1ae5b78b"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="2fde0613-ae2a-4b9e-9dd8-0a3a1ae5b78b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e7bbc584-5a77-4c67-8fd7-7058eeaacc07"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>